--- a/biology/Histoire de la zoologie et de la botanique/Hanna_Resvoll-Holmsen/Hanna_Resvoll-Holmsen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hanna_Resvoll-Holmsen/Hanna_Resvoll-Holmsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hanna Marie-Resvoll Holmsen (née le 11 septembre 1873 à Vågå, et décédée le 13 mars 1943 à Oslo) est une botaniste norvégienne.
 Elle  est connue pour ses études sur la flore du Svalbard mais aussi pour ses photographies.
-Son engagement à préserver les lacs de Gjende et Bygdin ainsi que la rivière Sjoa dans les années 1920 lui a valu d'être nommée : "Norges første moderne natur- og miljøverner" c'est-à-dire la première écologiste de Norvège[1].
+Son engagement à préserver les lacs de Gjende et Bygdin ainsi que la rivière Sjoa dans les années 1920 lui a valu d'être nommée : "Norges første moderne natur- og miljøverner" c'est-à-dire la première écologiste de Norvège.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1893, elle est gouvernante dans l'Østerdalen après son examen de sortie du collège. Là-bas, elle se marie une première fois, mariage malheureux qui sera dissout et dont elle aura eu un fils mort très jeune[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1893, elle est gouvernante dans l'Østerdalen après son examen de sortie du collège. Là-bas, elle se marie une première fois, mariage malheureux qui sera dissout et dont elle aura eu un fils mort très jeune.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les observations botaniques de la campagne scientifique de S.A.S. le Prince Albert 1er de Monaco. La misión Isachsen au Spitzberg 1907 - 1910
 Observations botaniques - 1913
